--- a/references/aact_tables.xlsx
+++ b/references/aact_tables.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\Data Science\Projects\predict-fda\references\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40695" windowHeight="17760"/>
   </bookViews>
   <sheets>
-    <sheet name="AACT Tables and Columns" sheetId="1" r:id="rId4"/>
+    <sheet name="AACT Tables and Columns" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="169">
   <si>
     <t>db schema</t>
   </si>
@@ -79,7 +87,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -142,7 +150,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -207,7 +215,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -224,7 +232,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -241,7 +249,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -258,7 +266,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -275,7 +283,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -307,7 +315,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -355,7 +363,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -372,7 +380,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -389,7 +397,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -406,7 +414,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -423,7 +431,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -440,7 +448,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -457,7 +465,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -474,7 +482,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -491,7 +499,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -508,7 +516,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -540,7 +548,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -588,7 +596,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -652,7 +660,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -700,7 +708,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -748,7 +756,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -780,7 +788,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -834,7 +842,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -890,7 +898,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Arial"/>
@@ -938,7 +946,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -1002,7 +1010,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -1050,7 +1058,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -1098,7 +1106,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -1115,7 +1123,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1200,33 +1208,59 @@
   </si>
   <si>
     <t>Table of terms determined to be either mental health, oncology or cardiovascular-related by a team of Duke clinicians. The source of the terms is the 2010 MeSH thesaurus as well as free-text terms/phrases used to identify interventional studies registered in ClinicalTrials.gov between 2007 and 2010.</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>documents</t>
+  </si>
+  <si>
+    <t>descriptions</t>
+  </si>
+  <si>
+    <t>statistics</t>
+  </si>
+  <si>
+    <t>aggregation</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>geography</t>
+  </si>
+  <si>
+    <t>participants</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>Subdomain (Namespace)</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>agreements</t>
+  </si>
+  <si>
+    <t>study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -1242,7 +1276,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Arial"/>
@@ -1253,13 +1287,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="13"/>
       <name val="Arial"/>
@@ -1309,60 +1343,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1373,28 +1401,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff6711ff"/>
-      <rgbColor rgb="ff7030a0"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF6711FF"/>
+      <rgbColor rgb="FF7030A0"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1520,7 +1605,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1529,7 +1614,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1538,7 +1623,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1612,7 +1697,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1620,7 +1705,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1639,7 +1724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1669,7 +1754,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1695,7 +1780,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1721,7 +1806,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1747,7 +1832,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1773,7 +1858,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1799,7 +1884,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1825,7 +1910,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1851,7 +1936,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1877,7 +1962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1890,9 +1975,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1907,7 +1998,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1915,7 +2006,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1934,7 +2025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1960,7 +2051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1986,7 +2077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2012,7 +2103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2038,7 +2129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2064,7 +2155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2090,7 +2181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2116,7 +2207,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2142,7 +2233,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2168,7 +2259,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2181,9 +2272,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2197,7 +2294,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2216,7 +2313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2246,7 +2343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2272,7 +2369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2298,7 +2395,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2324,7 +2421,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2350,7 +2447,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2376,7 +2473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2402,7 +2499,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2428,7 +2525,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2454,7 +2551,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2467,2881 +2564,3254 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F274"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6667" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="62" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.6719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="51" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="51" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s" s="7">
+      <c r="F4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="68" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" ht="68" customHeight="1">
-      <c r="A6" t="s" s="2">
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s" s="3">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s" s="3">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" ht="68" customHeight="1">
-      <c r="A7" t="s" s="2">
+      <c r="F6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" ht="68" customHeight="1">
-      <c r="A8" t="s" s="2">
+      <c r="F7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="3">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s" s="2">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s" s="7">
+      <c r="F8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s" s="9">
+      <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s" s="7">
+      <c r="F9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="51" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s" s="3">
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s" s="3">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s" s="7">
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s" s="7">
+      <c r="F11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="51" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s" s="7">
+      <c r="F12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" ht="51" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s" s="3">
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s" s="3">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s" s="7">
+      <c r="F13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" ht="51" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s" s="7">
+      <c r="F14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="51" customHeight="1">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s" s="3">
+      <c r="C15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s" s="7">
+      <c r="F15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" ht="34" customHeight="1">
-      <c r="A16" t="s" s="2">
+    <row r="16" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s" s="3">
+      <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s" s="7">
+      <c r="F16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" ht="119" customHeight="1">
-      <c r="A17" t="s" s="2">
+    <row r="17" spans="1:7" ht="119.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s" s="5">
+      <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s" s="10">
+      <c r="C17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F17" t="s" s="6">
+      <c r="F17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" ht="68" customHeight="1">
-      <c r="A18" t="s" s="2">
+    <row r="18" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B18" t="s" s="5">
+      <c r="B18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s" s="3">
+      <c r="C18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s" s="3">
+      <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" t="s" s="6">
+      <c r="F18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" ht="34" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s" s="7">
+      <c r="F19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" ht="34" customHeight="1">
-      <c r="A20" t="s" s="2">
+    <row r="20" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s" s="3">
+      <c r="C20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s" s="7">
+      <c r="F20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" ht="153" customHeight="1">
-      <c r="A21" t="s" s="2">
+    <row r="21" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F21" t="s" s="7">
+      <c r="F21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" ht="136" customHeight="1">
-      <c r="A22" t="s" s="2">
+    <row r="22" spans="1:7" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D22" t="s" s="3">
+      <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" t="s" s="7">
+      <c r="F22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" ht="51" customHeight="1">
-      <c r="A23" t="s" s="2">
+    <row r="23" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" t="s" s="3">
+      <c r="B23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s" s="9">
+      <c r="C23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D23" t="s" s="3">
+      <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F23" t="s" s="7">
+      <c r="F23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" ht="51" customHeight="1">
-      <c r="A24" t="s" s="2">
+    <row r="24" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s" s="3">
+      <c r="C24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D24" t="s" s="3">
+      <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F24" t="s" s="7">
+      <c r="F24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" ht="51" customHeight="1">
-      <c r="A25" t="s" s="2">
+    <row r="25" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="B25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s" s="9">
+      <c r="C25" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D25" t="s" s="3">
+      <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F25" t="s" s="7">
+      <c r="F25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" ht="68" customHeight="1">
-      <c r="A26" t="s" s="2">
+    <row r="26" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="B26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F26" t="s" s="7">
+      <c r="F26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" ht="34" customHeight="1">
-      <c r="A27" t="s" s="2">
+    <row r="27" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s" s="3">
+      <c r="B27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C27" t="s" s="3">
+      <c r="C27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D27" t="s" s="3">
+      <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F27" t="s" s="7">
+      <c r="F27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" ht="68" customHeight="1">
-      <c r="A28" t="s" s="2">
+    <row r="28" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s" s="5">
+      <c r="B28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C28" t="s" s="10">
+      <c r="C28" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D28" t="s" s="3">
+      <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="6">
+      <c r="F28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" ht="68" customHeight="1">
-      <c r="A29" t="s" s="2">
+    <row r="29" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29" t="s" s="5">
+      <c r="B29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F29" t="s" s="6">
+      <c r="F29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" ht="34" customHeight="1">
-      <c r="A30" t="s" s="2">
+    <row r="30" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="s" s="5">
+      <c r="B30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C30" t="s" s="3">
+      <c r="C30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D30" t="s" s="3">
+      <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F30" t="s" s="6">
+      <c r="F30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" ht="51" customHeight="1">
-      <c r="A31" t="s" s="2">
+    <row r="31" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s" s="5">
+      <c r="B31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F31" t="s" s="6">
+      <c r="F31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" ht="51" customHeight="1">
-      <c r="A32" t="s" s="2">
+    <row r="32" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B32" t="s" s="5">
+      <c r="B32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C32" t="s" s="10">
+      <c r="C32" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D32" t="s" s="3">
+      <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F32" t="s" s="6">
+      <c r="F32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" ht="85" customHeight="1">
-      <c r="A33" t="s" s="2">
+    <row r="33" spans="1:7" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="s" s="5">
+      <c r="B33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F33" t="s" s="6">
+      <c r="F33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" ht="34" customHeight="1">
-      <c r="A34" t="s" s="2">
+    <row r="34" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" t="s" s="3">
+      <c r="B34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C34" t="s" s="9">
+      <c r="C34" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D34" t="s" s="3">
+      <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F34" t="s" s="7">
+      <c r="F34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" ht="85" customHeight="1">
-      <c r="A35" t="s" s="2">
+    <row r="35" spans="1:7" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B35" t="s" s="5">
+      <c r="B35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F35" t="s" s="6">
+      <c r="F35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" ht="81" customHeight="1">
-      <c r="A36" t="s" s="2">
+    <row r="36" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" t="s" s="5">
+      <c r="B36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C36" t="s" s="3">
+      <c r="C36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D36" t="s" s="3">
+      <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" ht="81" customHeight="1">
-      <c r="A37" t="s" s="2">
+      <c r="F36" s="2"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B37" t="s" s="5">
+      <c r="B37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C37" t="s" s="3">
+      <c r="C37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D37" t="s" s="3">
+      <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F37" t="s" s="7">
+      <c r="F37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" ht="85" customHeight="1">
-      <c r="A38" t="s" s="2">
+    <row r="38" spans="1:7" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B38" t="s" s="5">
+      <c r="B38" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F38" t="s" s="6">
+      <c r="F38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" ht="68" customHeight="1">
-      <c r="A39" t="s" s="2">
+    <row r="39" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C39" t="s" s="3">
+      <c r="C39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D39" t="s" s="3">
+      <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F39" t="s" s="7">
+      <c r="F39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" ht="85" customHeight="1">
-      <c r="A40" t="s" s="2">
+    <row r="40" spans="1:7" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B40" t="s" s="5">
+      <c r="B40" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F40" t="s" s="6">
+      <c r="F40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" ht="34" customHeight="1">
-      <c r="A41" t="s" s="2">
+    <row r="41" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B41" t="s" s="5">
+      <c r="B41" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C41" t="s" s="10">
+      <c r="C41" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D41" t="s" s="3">
+      <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F41" t="s" s="6">
+      <c r="F41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" ht="34" customHeight="1">
-      <c r="A42" t="s" s="2">
+    <row r="42" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B42" t="s" s="5">
+      <c r="B42" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C42" t="s" s="3">
+      <c r="C42" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D42" t="s" s="3">
+      <c r="D42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F42" t="s" s="6">
+      <c r="F42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" ht="68" customHeight="1">
-      <c r="A43" t="s" s="2">
+    <row r="43" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B43" t="s" s="3">
+      <c r="B43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C43" t="s" s="9">
+      <c r="C43" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D43" t="s" s="3">
+      <c r="D43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F43" t="s" s="7">
+      <c r="F43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" ht="85" customHeight="1">
-      <c r="A44" t="s" s="2">
+    <row r="44" spans="1:7" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B44" t="s" s="3">
+      <c r="B44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C44" t="s" s="9">
+      <c r="C44" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D44" t="s" s="3">
+      <c r="D44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" ht="51" customHeight="1">
-      <c r="A45" t="s" s="2">
+      <c r="F44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C45" t="s" s="9">
+      <c r="C45" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D45" t="s" s="3">
+      <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" ht="85" customHeight="1">
-      <c r="A46" t="s" s="2">
+      <c r="F45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C46" t="s" s="3">
+      <c r="C46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" ht="68" customHeight="1">
-      <c r="A47" t="s" s="2">
+      <c r="F46" s="2"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="C47" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" ht="17" customHeight="1">
-      <c r="A48" t="s" s="2">
+      <c r="F47" s="2"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C48" t="s" s="3">
+      <c r="C48" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" ht="51" customHeight="1">
-      <c r="A49" t="s" s="2">
+      <c r="F48" s="2"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C49" t="s" s="3">
+      <c r="C49" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" ht="85" customHeight="1">
-      <c r="A50" t="s" s="2">
+      <c r="F49" s="2"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C50" t="s" s="13">
+      <c r="C50" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D50" t="s" s="3">
+      <c r="D50" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" ht="34" customHeight="1">
-      <c r="A51" t="s" s="2">
+      <c r="F50" s="2"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C51" t="s" s="13">
+      <c r="C51" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D51" t="s" s="3">
+      <c r="D51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" ht="34" customHeight="1">
-      <c r="A52" t="s" s="2">
+      <c r="F51" s="2"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C52" t="s" s="13">
+      <c r="C52" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" ht="34" customHeight="1">
-      <c r="A53" t="s" s="2">
+      <c r="F52" s="2"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C53" t="s" s="13">
+      <c r="C53" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" ht="85" customHeight="1">
-      <c r="A54" t="s" s="2">
+      <c r="F53" s="2"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C54" t="s" s="3">
+      <c r="C54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" ht="16" customHeight="1">
+      <c r="F54" s="2"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="14"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" ht="16" customHeight="1">
+      <c r="F55" s="15"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="14"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" ht="16" customHeight="1">
+      <c r="F56" s="15"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="14"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" ht="16" customHeight="1">
+      <c r="F57" s="15"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="14"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" ht="16" customHeight="1">
+      <c r="F58" s="15"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="14"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" ht="16" customHeight="1">
+      <c r="F59" s="15"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="12"/>
-    </row>
-    <row r="61" ht="16" customHeight="1">
+      <c r="F60" s="15"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="14"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="F61" s="12"/>
-    </row>
-    <row r="62" ht="16" customHeight="1">
+      <c r="F61" s="15"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" ht="16" customHeight="1">
+      <c r="F62" s="15"/>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="14"/>
-    </row>
-    <row r="64" ht="16" customHeight="1">
+      <c r="F63" s="15"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" ht="16" customHeight="1">
+      <c r="F64" s="15"/>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="14"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
-      <c r="F65" s="12"/>
-    </row>
-    <row r="66" ht="16" customHeight="1">
+      <c r="F65" s="15"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="14"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" ht="16" customHeight="1">
+      <c r="F66" s="15"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="14"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" ht="16" customHeight="1">
+      <c r="F67" s="15"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="14"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
-      <c r="F68" s="12"/>
-    </row>
-    <row r="69" ht="16" customHeight="1">
+      <c r="F68" s="15"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="12"/>
-    </row>
-    <row r="70" ht="16" customHeight="1">
+      <c r="F69" s="15"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="14"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
-      <c r="F70" s="12"/>
-    </row>
-    <row r="71" ht="16" customHeight="1">
+      <c r="F70" s="15"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="15"/>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" ht="16" customHeight="1">
+      <c r="F71" s="15"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="15"/>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" ht="16" customHeight="1">
+      <c r="F72" s="15"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="14"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" ht="16" customHeight="1">
+      <c r="F73" s="15"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="14"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" ht="16" customHeight="1">
+      <c r="F74" s="15"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="14"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" ht="16" customHeight="1">
+      <c r="F75" s="15"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="15"/>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" ht="16" customHeight="1">
+      <c r="F76" s="15"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="14"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" ht="16" customHeight="1">
+      <c r="F77" s="15"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
-      <c r="F78" s="12"/>
-    </row>
-    <row r="79" ht="16" customHeight="1">
+      <c r="F78" s="15"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="14"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="12"/>
-    </row>
-    <row r="80" ht="16" customHeight="1">
+      <c r="F79" s="15"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="15"/>
-      <c r="F80" s="12"/>
-    </row>
-    <row r="81" ht="16" customHeight="1">
+      <c r="F80" s="15"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="15"/>
-      <c r="F81" s="12"/>
-    </row>
-    <row r="82" ht="16" customHeight="1">
+      <c r="F81" s="15"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
       <c r="E82" s="15"/>
-      <c r="F82" s="12"/>
-    </row>
-    <row r="83" ht="16" customHeight="1">
+      <c r="F82" s="15"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
       <c r="E83" s="15"/>
-      <c r="F83" s="12"/>
-    </row>
-    <row r="84" ht="16" customHeight="1">
+      <c r="F83" s="15"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
       <c r="E84" s="15"/>
-      <c r="F84" s="12"/>
-    </row>
-    <row r="85" ht="16" customHeight="1">
+      <c r="F84" s="15"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
       <c r="E85" s="15"/>
-      <c r="F85" s="12"/>
-    </row>
-    <row r="86" ht="16" customHeight="1">
+      <c r="F85" s="15"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="15"/>
-      <c r="F86" s="12"/>
-    </row>
-    <row r="87" ht="16" customHeight="1">
+      <c r="F86" s="15"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
       <c r="E87" s="15"/>
-      <c r="F87" s="12"/>
-    </row>
-    <row r="88" ht="16" customHeight="1">
+      <c r="F87" s="15"/>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="15"/>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" ht="16" customHeight="1">
+      <c r="F88" s="15"/>
+      <c r="G88" s="14"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
       <c r="E89" s="15"/>
-      <c r="F89" s="12"/>
-    </row>
-    <row r="90" ht="16" customHeight="1">
+      <c r="F89" s="15"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="15"/>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="91" ht="16" customHeight="1">
+      <c r="F90" s="15"/>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="15"/>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" ht="16" customHeight="1">
+      <c r="F91" s="15"/>
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
       <c r="E92" s="15"/>
-      <c r="F92" s="12"/>
-    </row>
-    <row r="93" ht="16" customHeight="1">
+      <c r="F92" s="15"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
       <c r="E93" s="15"/>
-      <c r="F93" s="12"/>
-    </row>
-    <row r="94" ht="16" customHeight="1">
+      <c r="F93" s="15"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
       <c r="E94" s="15"/>
-      <c r="F94" s="12"/>
-    </row>
-    <row r="95" ht="16" customHeight="1">
+      <c r="F94" s="15"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
       <c r="E95" s="15"/>
-      <c r="F95" s="12"/>
-    </row>
-    <row r="96" ht="16" customHeight="1">
+      <c r="F95" s="15"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
       <c r="E96" s="15"/>
-      <c r="F96" s="12"/>
-    </row>
-    <row r="97" ht="16" customHeight="1">
+      <c r="F96" s="15"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="14"/>
       <c r="D97" s="14"/>
       <c r="E97" s="15"/>
-      <c r="F97" s="12"/>
-    </row>
-    <row r="98" ht="16" customHeight="1">
+      <c r="F97" s="15"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="15"/>
-      <c r="F98" s="12"/>
-    </row>
-    <row r="99" ht="16" customHeight="1">
+      <c r="F98" s="15"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="15"/>
-      <c r="F99" s="12"/>
-    </row>
-    <row r="100" ht="16" customHeight="1">
+      <c r="F99" s="15"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="15"/>
-      <c r="F100" s="12"/>
-    </row>
-    <row r="101" ht="16" customHeight="1">
+      <c r="F100" s="15"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="15"/>
-      <c r="F101" s="12"/>
-    </row>
-    <row r="102" ht="16" customHeight="1">
+      <c r="F101" s="15"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="15"/>
-      <c r="F102" s="12"/>
-    </row>
-    <row r="103" ht="16" customHeight="1">
+      <c r="F102" s="15"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
       <c r="E103" s="15"/>
-      <c r="F103" s="12"/>
-    </row>
-    <row r="104" ht="16" customHeight="1">
+      <c r="F103" s="15"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="15"/>
-      <c r="F104" s="14"/>
-    </row>
-    <row r="105" ht="16" customHeight="1">
+      <c r="F104" s="15"/>
+      <c r="G104" s="14"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
       <c r="E105" s="15"/>
-      <c r="F105" s="12"/>
-    </row>
-    <row r="106" ht="16" customHeight="1">
+      <c r="F105" s="15"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
       <c r="E106" s="15"/>
-      <c r="F106" s="12"/>
-    </row>
-    <row r="107" ht="16" customHeight="1">
+      <c r="F106" s="15"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
       <c r="E107" s="15"/>
-      <c r="F107" s="12"/>
-    </row>
-    <row r="108" ht="16" customHeight="1">
+      <c r="F107" s="15"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
       <c r="E108" s="15"/>
-      <c r="F108" s="12"/>
-    </row>
-    <row r="109" ht="16" customHeight="1">
+      <c r="F108" s="15"/>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="14"/>
       <c r="D109" s="14"/>
       <c r="E109" s="15"/>
-      <c r="F109" s="12"/>
-    </row>
-    <row r="110" ht="16" customHeight="1">
+      <c r="F109" s="15"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
       <c r="E110" s="15"/>
-      <c r="F110" s="12"/>
-    </row>
-    <row r="111" ht="16" customHeight="1">
+      <c r="F110" s="15"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
       <c r="E111" s="15"/>
-      <c r="F111" s="12"/>
-    </row>
-    <row r="112" ht="16" customHeight="1">
+      <c r="F111" s="15"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
       <c r="E112" s="15"/>
-      <c r="F112" s="12"/>
-    </row>
-    <row r="113" ht="16" customHeight="1">
+      <c r="F112" s="15"/>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
       <c r="E113" s="15"/>
-      <c r="F113" s="12"/>
-    </row>
-    <row r="114" ht="16" customHeight="1">
+      <c r="F113" s="15"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="15"/>
-      <c r="F114" s="14"/>
-    </row>
-    <row r="115" ht="16" customHeight="1">
+      <c r="F114" s="15"/>
+      <c r="G114" s="14"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="15"/>
-      <c r="F115" s="14"/>
-    </row>
-    <row r="116" ht="16" customHeight="1">
+      <c r="F115" s="15"/>
+      <c r="G115" s="14"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="15"/>
-      <c r="F116" s="14"/>
-    </row>
-    <row r="117" ht="16" customHeight="1">
+      <c r="F116" s="15"/>
+      <c r="G116" s="14"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="15"/>
-      <c r="F117" s="14"/>
-    </row>
-    <row r="118" ht="16" customHeight="1">
+      <c r="F117" s="15"/>
+      <c r="G117" s="14"/>
+    </row>
+    <row r="118" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="15"/>
-      <c r="F118" s="14"/>
-    </row>
-    <row r="119" ht="16" customHeight="1">
+      <c r="F118" s="15"/>
+      <c r="G118" s="14"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="15"/>
-      <c r="F119" s="14"/>
-    </row>
-    <row r="120" ht="16" customHeight="1">
+      <c r="F119" s="15"/>
+      <c r="G119" s="14"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
       <c r="E120" s="15"/>
-      <c r="F120" s="12"/>
-    </row>
-    <row r="121" ht="16" customHeight="1">
+      <c r="F120" s="15"/>
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="15"/>
-      <c r="F121" s="14"/>
-    </row>
-    <row r="122" ht="16" customHeight="1">
+      <c r="F121" s="15"/>
+      <c r="G121" s="14"/>
+    </row>
+    <row r="122" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
       <c r="E122" s="15"/>
-      <c r="F122" s="14"/>
-    </row>
-    <row r="123" ht="16" customHeight="1">
+      <c r="F122" s="15"/>
+      <c r="G122" s="14"/>
+    </row>
+    <row r="123" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
       <c r="E123" s="15"/>
-      <c r="F123" s="12"/>
-    </row>
-    <row r="124" ht="16" customHeight="1">
+      <c r="F123" s="15"/>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>
       <c r="B124" s="15"/>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
       <c r="E124" s="15"/>
-      <c r="F124" s="14"/>
-    </row>
-    <row r="125" ht="16" customHeight="1">
+      <c r="F124" s="15"/>
+      <c r="G124" s="14"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
       <c r="E125" s="15"/>
-      <c r="F125" s="14"/>
-    </row>
-    <row r="126" ht="16" customHeight="1">
+      <c r="F125" s="15"/>
+      <c r="G125" s="14"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
       <c r="E126" s="15"/>
-      <c r="F126" s="14"/>
-    </row>
-    <row r="127" ht="16" customHeight="1">
+      <c r="F126" s="15"/>
+      <c r="G126" s="14"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="15"/>
       <c r="B127" s="15"/>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
       <c r="E127" s="15"/>
-      <c r="F127" s="12"/>
-    </row>
-    <row r="128" ht="16" customHeight="1">
+      <c r="F127" s="15"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="15"/>
       <c r="B128" s="15"/>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
       <c r="E128" s="15"/>
-      <c r="F128" s="12"/>
-    </row>
-    <row r="129" ht="16" customHeight="1">
+      <c r="F128" s="15"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="15"/>
-      <c r="F129" s="12"/>
-    </row>
-    <row r="130" ht="16" customHeight="1">
+      <c r="F129" s="15"/>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
       <c r="E130" s="15"/>
-      <c r="F130" s="12"/>
-    </row>
-    <row r="131" ht="16" customHeight="1">
+      <c r="F130" s="15"/>
+      <c r="G130" s="12"/>
+    </row>
+    <row r="131" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="14"/>
       <c r="D131" s="14"/>
       <c r="E131" s="15"/>
-      <c r="F131" s="12"/>
-    </row>
-    <row r="132" ht="16" customHeight="1">
+      <c r="F131" s="15"/>
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
       <c r="E132" s="15"/>
-      <c r="F132" s="14"/>
-    </row>
-    <row r="133" ht="16" customHeight="1">
+      <c r="F132" s="15"/>
+      <c r="G132" s="14"/>
+    </row>
+    <row r="133" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="14"/>
       <c r="D133" s="14"/>
       <c r="E133" s="15"/>
-      <c r="F133" s="12"/>
-    </row>
-    <row r="134" ht="16" customHeight="1">
+      <c r="F133" s="15"/>
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="15"/>
       <c r="B134" s="15"/>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
       <c r="E134" s="15"/>
-      <c r="F134" s="12"/>
-    </row>
-    <row r="135" ht="16" customHeight="1">
+      <c r="F134" s="15"/>
+      <c r="G134" s="12"/>
+    </row>
+    <row r="135" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="14"/>
       <c r="D135" s="14"/>
       <c r="E135" s="15"/>
-      <c r="F135" s="12"/>
-    </row>
-    <row r="136" ht="16" customHeight="1">
+      <c r="F135" s="15"/>
+      <c r="G135" s="12"/>
+    </row>
+    <row r="136" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
       <c r="E136" s="15"/>
-      <c r="F136" s="12"/>
-    </row>
-    <row r="137" ht="16" customHeight="1">
+      <c r="F136" s="15"/>
+      <c r="G136" s="12"/>
+    </row>
+    <row r="137" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="15"/>
       <c r="B137" s="15"/>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
       <c r="E137" s="15"/>
-      <c r="F137" s="14"/>
-    </row>
-    <row r="138" ht="16" customHeight="1">
+      <c r="F137" s="15"/>
+      <c r="G137" s="14"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15"/>
       <c r="B138" s="15"/>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
       <c r="E138" s="15"/>
-      <c r="F138" s="14"/>
-    </row>
-    <row r="139" ht="16" customHeight="1">
+      <c r="F138" s="15"/>
+      <c r="G138" s="14"/>
+    </row>
+    <row r="139" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
       <c r="E139" s="15"/>
-      <c r="F139" s="14"/>
-    </row>
-    <row r="140" ht="16" customHeight="1">
+      <c r="F139" s="15"/>
+      <c r="G139" s="14"/>
+    </row>
+    <row r="140" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="14"/>
       <c r="D140" s="14"/>
       <c r="E140" s="15"/>
-      <c r="F140" s="12"/>
-    </row>
-    <row r="141" ht="16" customHeight="1">
+      <c r="F140" s="15"/>
+      <c r="G140" s="12"/>
+    </row>
+    <row r="141" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
       <c r="E141" s="15"/>
-      <c r="F141" s="14"/>
-    </row>
-    <row r="142" ht="16" customHeight="1">
+      <c r="F141" s="15"/>
+      <c r="G141" s="14"/>
+    </row>
+    <row r="142" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="14"/>
       <c r="D142" s="14"/>
       <c r="E142" s="15"/>
-      <c r="F142" s="12"/>
-    </row>
-    <row r="143" ht="16" customHeight="1">
+      <c r="F142" s="15"/>
+      <c r="G142" s="12"/>
+    </row>
+    <row r="143" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
       <c r="E143" s="15"/>
-      <c r="F143" s="14"/>
-    </row>
-    <row r="144" ht="16" customHeight="1">
+      <c r="F143" s="15"/>
+      <c r="G143" s="14"/>
+    </row>
+    <row r="144" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
       <c r="C144" s="14"/>
       <c r="D144" s="14"/>
       <c r="E144" s="15"/>
-      <c r="F144" s="12"/>
-    </row>
-    <row r="145" ht="16" customHeight="1">
+      <c r="F144" s="15"/>
+      <c r="G144" s="12"/>
+    </row>
+    <row r="145" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
       <c r="E145" s="15"/>
-      <c r="F145" s="14"/>
-    </row>
-    <row r="146" ht="16" customHeight="1">
+      <c r="F145" s="15"/>
+      <c r="G145" s="14"/>
+    </row>
+    <row r="146" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="15"/>
       <c r="B146" s="15"/>
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
       <c r="E146" s="15"/>
-      <c r="F146" s="14"/>
-    </row>
-    <row r="147" ht="16" customHeight="1">
+      <c r="F146" s="15"/>
+      <c r="G146" s="14"/>
+    </row>
+    <row r="147" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="15"/>
       <c r="B147" s="15"/>
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
       <c r="E147" s="15"/>
-      <c r="F147" s="14"/>
-    </row>
-    <row r="148" ht="16" customHeight="1">
+      <c r="F147" s="15"/>
+      <c r="G147" s="14"/>
+    </row>
+    <row r="148" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="15"/>
       <c r="B148" s="15"/>
       <c r="C148" s="16"/>
       <c r="D148" s="16"/>
       <c r="E148" s="15"/>
-      <c r="F148" s="14"/>
-    </row>
-    <row r="149" ht="16" customHeight="1">
+      <c r="F148" s="15"/>
+      <c r="G148" s="14"/>
+    </row>
+    <row r="149" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="14"/>
       <c r="D149" s="14"/>
       <c r="E149" s="15"/>
-      <c r="F149" s="12"/>
-    </row>
-    <row r="150" ht="16" customHeight="1">
+      <c r="F149" s="15"/>
+      <c r="G149" s="12"/>
+    </row>
+    <row r="150" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
       <c r="E150" s="15"/>
-      <c r="F150" s="14"/>
-    </row>
-    <row r="151" ht="16" customHeight="1">
+      <c r="F150" s="15"/>
+      <c r="G150" s="14"/>
+    </row>
+    <row r="151" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
       <c r="C151" s="14"/>
       <c r="D151" s="14"/>
       <c r="E151" s="15"/>
-      <c r="F151" s="12"/>
-    </row>
-    <row r="152" ht="16" customHeight="1">
+      <c r="F151" s="15"/>
+      <c r="G151" s="12"/>
+    </row>
+    <row r="152" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="15"/>
       <c r="B152" s="15"/>
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
       <c r="E152" s="15"/>
-      <c r="F152" s="12"/>
-    </row>
-    <row r="153" ht="16" customHeight="1">
+      <c r="F152" s="15"/>
+      <c r="G152" s="12"/>
+    </row>
+    <row r="153" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
       <c r="E153" s="15"/>
-      <c r="F153" s="14"/>
-    </row>
-    <row r="154" ht="16" customHeight="1">
+      <c r="F153" s="15"/>
+      <c r="G153" s="14"/>
+    </row>
+    <row r="154" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15"/>
       <c r="B154" s="15"/>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
       <c r="E154" s="15"/>
-      <c r="F154" s="14"/>
-    </row>
-    <row r="155" ht="16" customHeight="1">
+      <c r="F154" s="15"/>
+      <c r="G154" s="14"/>
+    </row>
+    <row r="155" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15"/>
       <c r="B155" s="15"/>
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
       <c r="E155" s="15"/>
-      <c r="F155" s="14"/>
-    </row>
-    <row r="156" ht="16" customHeight="1">
+      <c r="F155" s="15"/>
+      <c r="G155" s="14"/>
+    </row>
+    <row r="156" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="15"/>
       <c r="B156" s="15"/>
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
       <c r="E156" s="15"/>
-      <c r="F156" s="14"/>
-    </row>
-    <row r="157" ht="16" customHeight="1">
+      <c r="F156" s="15"/>
+      <c r="G156" s="14"/>
+    </row>
+    <row r="157" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="15"/>
       <c r="B157" s="15"/>
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
       <c r="E157" s="15"/>
-      <c r="F157" s="14"/>
-    </row>
-    <row r="158" ht="16" customHeight="1">
+      <c r="F157" s="15"/>
+      <c r="G157" s="14"/>
+    </row>
+    <row r="158" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="15"/>
       <c r="B158" s="15"/>
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
       <c r="E158" s="15"/>
-      <c r="F158" s="14"/>
-    </row>
-    <row r="159" ht="16" customHeight="1">
+      <c r="F158" s="15"/>
+      <c r="G158" s="14"/>
+    </row>
+    <row r="159" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="15"/>
       <c r="B159" s="15"/>
       <c r="C159" s="16"/>
       <c r="D159" s="16"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="14"/>
-    </row>
-    <row r="160" ht="16" customHeight="1">
+      <c r="F159" s="15"/>
+      <c r="G159" s="14"/>
+    </row>
+    <row r="160" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="15"/>
       <c r="B160" s="15"/>
       <c r="C160" s="16"/>
       <c r="D160" s="16"/>
       <c r="E160" s="15"/>
-      <c r="F160" s="14"/>
-    </row>
-    <row r="161" ht="16" customHeight="1">
+      <c r="F160" s="15"/>
+      <c r="G160" s="14"/>
+    </row>
+    <row r="161" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="15"/>
       <c r="B161" s="15"/>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
       <c r="E161" s="15"/>
-      <c r="F161" s="14"/>
-    </row>
-    <row r="162" ht="16" customHeight="1">
+      <c r="F161" s="15"/>
+      <c r="G161" s="14"/>
+    </row>
+    <row r="162" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="15"/>
       <c r="B162" s="15"/>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
       <c r="E162" s="15"/>
-      <c r="F162" s="14"/>
-    </row>
-    <row r="163" ht="16" customHeight="1">
+      <c r="F162" s="15"/>
+      <c r="G162" s="14"/>
+    </row>
+    <row r="163" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="15"/>
       <c r="B163" s="15"/>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
       <c r="E163" s="15"/>
-      <c r="F163" s="14"/>
-    </row>
-    <row r="164" ht="16" customHeight="1">
+      <c r="F163" s="15"/>
+      <c r="G163" s="14"/>
+    </row>
+    <row r="164" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
       <c r="E164" s="15"/>
-      <c r="F164" s="14"/>
-    </row>
-    <row r="165" ht="16" customHeight="1">
+      <c r="F164" s="15"/>
+      <c r="G164" s="14"/>
+    </row>
+    <row r="165" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="15"/>
       <c r="B165" s="15"/>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
       <c r="E165" s="15"/>
-      <c r="F165" s="14"/>
-    </row>
-    <row r="166" ht="16" customHeight="1">
+      <c r="F165" s="15"/>
+      <c r="G165" s="14"/>
+    </row>
+    <row r="166" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="15"/>
       <c r="B166" s="15"/>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
       <c r="E166" s="15"/>
-      <c r="F166" s="12"/>
-    </row>
-    <row r="167" ht="16" customHeight="1">
+      <c r="F166" s="15"/>
+      <c r="G166" s="12"/>
+    </row>
+    <row r="167" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="15"/>
       <c r="B167" s="15"/>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
       <c r="E167" s="15"/>
-      <c r="F167" s="12"/>
-    </row>
-    <row r="168" ht="16" customHeight="1">
+      <c r="F167" s="15"/>
+      <c r="G167" s="12"/>
+    </row>
+    <row r="168" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="15"/>
       <c r="B168" s="15"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
       <c r="E168" s="15"/>
-      <c r="F168" s="12"/>
-    </row>
-    <row r="169" ht="16" customHeight="1">
+      <c r="F168" s="15"/>
+      <c r="G168" s="12"/>
+    </row>
+    <row r="169" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="15"/>
       <c r="B169" s="15"/>
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
       <c r="E169" s="15"/>
-      <c r="F169" s="14"/>
-    </row>
-    <row r="170" ht="16" customHeight="1">
+      <c r="F169" s="15"/>
+      <c r="G169" s="14"/>
+    </row>
+    <row r="170" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="15"/>
       <c r="B170" s="15"/>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
       <c r="E170" s="15"/>
-      <c r="F170" s="14"/>
-    </row>
-    <row r="171" ht="16" customHeight="1">
+      <c r="F170" s="15"/>
+      <c r="G170" s="14"/>
+    </row>
+    <row r="171" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="15"/>
       <c r="B171" s="15"/>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
       <c r="E171" s="15"/>
-      <c r="F171" s="12"/>
-    </row>
-    <row r="172" ht="16" customHeight="1">
+      <c r="F171" s="15"/>
+      <c r="G171" s="12"/>
+    </row>
+    <row r="172" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="15"/>
       <c r="B172" s="15"/>
       <c r="C172" s="14"/>
       <c r="D172" s="14"/>
       <c r="E172" s="15"/>
-      <c r="F172" s="12"/>
-    </row>
-    <row r="173" ht="16" customHeight="1">
+      <c r="F172" s="15"/>
+      <c r="G172" s="12"/>
+    </row>
+    <row r="173" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="15"/>
       <c r="B173" s="15"/>
       <c r="C173" s="14"/>
       <c r="D173" s="14"/>
       <c r="E173" s="15"/>
-      <c r="F173" s="12"/>
-    </row>
-    <row r="174" ht="16" customHeight="1">
+      <c r="F173" s="15"/>
+      <c r="G173" s="12"/>
+    </row>
+    <row r="174" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="15"/>
       <c r="B174" s="15"/>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
       <c r="E174" s="15"/>
-      <c r="F174" s="12"/>
-    </row>
-    <row r="175" ht="16" customHeight="1">
+      <c r="F174" s="15"/>
+      <c r="G174" s="12"/>
+    </row>
+    <row r="175" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15"/>
       <c r="B175" s="15"/>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
       <c r="E175" s="15"/>
-      <c r="F175" s="12"/>
-    </row>
-    <row r="176" ht="16" customHeight="1">
+      <c r="F175" s="15"/>
+      <c r="G175" s="12"/>
+    </row>
+    <row r="176" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15"/>
       <c r="B176" s="15"/>
       <c r="C176" s="16"/>
       <c r="D176" s="16"/>
       <c r="E176" s="15"/>
-      <c r="F176" s="14"/>
-    </row>
-    <row r="177" ht="16" customHeight="1">
+      <c r="F176" s="15"/>
+      <c r="G176" s="14"/>
+    </row>
+    <row r="177" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="15"/>
       <c r="B177" s="15"/>
       <c r="C177" s="16"/>
       <c r="D177" s="16"/>
       <c r="E177" s="15"/>
-      <c r="F177" s="14"/>
-    </row>
-    <row r="178" ht="16" customHeight="1">
+      <c r="F177" s="15"/>
+      <c r="G177" s="14"/>
+    </row>
+    <row r="178" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
       <c r="E178" s="15"/>
-      <c r="F178" s="14"/>
-    </row>
-    <row r="179" ht="16" customHeight="1">
+      <c r="F178" s="15"/>
+      <c r="G178" s="14"/>
+    </row>
+    <row r="179" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
       <c r="E179" s="15"/>
-      <c r="F179" s="12"/>
-    </row>
-    <row r="180" ht="16" customHeight="1">
+      <c r="F179" s="15"/>
+      <c r="G179" s="12"/>
+    </row>
+    <row r="180" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
       <c r="E180" s="15"/>
-      <c r="F180" s="14"/>
-    </row>
-    <row r="181" ht="16" customHeight="1">
+      <c r="F180" s="15"/>
+      <c r="G180" s="14"/>
+    </row>
+    <row r="181" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="15"/>
       <c r="B181" s="15"/>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
       <c r="E181" s="15"/>
-      <c r="F181" s="12"/>
-    </row>
-    <row r="182" ht="16" customHeight="1">
+      <c r="F181" s="15"/>
+      <c r="G181" s="12"/>
+    </row>
+    <row r="182" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="15"/>
       <c r="B182" s="15"/>
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
       <c r="E182" s="15"/>
-      <c r="F182" s="14"/>
-    </row>
-    <row r="183" ht="16" customHeight="1">
+      <c r="F182" s="15"/>
+      <c r="G182" s="14"/>
+    </row>
+    <row r="183" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="15"/>
       <c r="B183" s="15"/>
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
       <c r="E183" s="15"/>
-      <c r="F183" s="14"/>
-    </row>
-    <row r="184" ht="16" customHeight="1">
+      <c r="F183" s="15"/>
+      <c r="G183" s="14"/>
+    </row>
+    <row r="184" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="16"/>
       <c r="D184" s="16"/>
       <c r="E184" s="15"/>
-      <c r="F184" s="14"/>
-    </row>
-    <row r="185" ht="16" customHeight="1">
+      <c r="F184" s="15"/>
+      <c r="G184" s="14"/>
+    </row>
+    <row r="185" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="15"/>
       <c r="B185" s="15"/>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
       <c r="E185" s="15"/>
-      <c r="F185" s="12"/>
-    </row>
-    <row r="186" ht="16" customHeight="1">
+      <c r="F185" s="15"/>
+      <c r="G185" s="12"/>
+    </row>
+    <row r="186" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
       <c r="E186" s="15"/>
-      <c r="F186" s="12"/>
-    </row>
-    <row r="187" ht="16" customHeight="1">
+      <c r="F186" s="15"/>
+      <c r="G186" s="12"/>
+    </row>
+    <row r="187" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
       <c r="E187" s="15"/>
-      <c r="F187" s="12"/>
-    </row>
-    <row r="188" ht="16" customHeight="1">
+      <c r="F187" s="15"/>
+      <c r="G187" s="12"/>
+    </row>
+    <row r="188" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="15"/>
       <c r="B188" s="15"/>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
       <c r="E188" s="15"/>
-      <c r="F188" s="12"/>
-    </row>
-    <row r="189" ht="16" customHeight="1">
+      <c r="F188" s="15"/>
+      <c r="G188" s="12"/>
+    </row>
+    <row r="189" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="15"/>
       <c r="B189" s="15"/>
       <c r="C189" s="16"/>
       <c r="D189" s="16"/>
       <c r="E189" s="15"/>
-      <c r="F189" s="14"/>
-    </row>
-    <row r="190" ht="16" customHeight="1">
+      <c r="F189" s="15"/>
+      <c r="G189" s="14"/>
+    </row>
+    <row r="190" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
       <c r="C190" s="16"/>
       <c r="D190" s="16"/>
       <c r="E190" s="15"/>
-      <c r="F190" s="14"/>
-    </row>
-    <row r="191" ht="16" customHeight="1">
+      <c r="F190" s="15"/>
+      <c r="G190" s="14"/>
+    </row>
+    <row r="191" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="15"/>
       <c r="B191" s="15"/>
       <c r="C191" s="16"/>
       <c r="D191" s="16"/>
       <c r="E191" s="15"/>
-      <c r="F191" s="14"/>
-    </row>
-    <row r="192" ht="16" customHeight="1">
+      <c r="F191" s="15"/>
+      <c r="G191" s="14"/>
+    </row>
+    <row r="192" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="15"/>
       <c r="B192" s="15"/>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
       <c r="E192" s="15"/>
-      <c r="F192" s="14"/>
-    </row>
-    <row r="193" ht="16" customHeight="1">
+      <c r="F192" s="15"/>
+      <c r="G192" s="14"/>
+    </row>
+    <row r="193" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="15"/>
       <c r="B193" s="15"/>
       <c r="C193" s="16"/>
       <c r="D193" s="16"/>
       <c r="E193" s="15"/>
-      <c r="F193" s="14"/>
-    </row>
-    <row r="194" ht="16" customHeight="1">
+      <c r="F193" s="15"/>
+      <c r="G193" s="14"/>
+    </row>
+    <row r="194" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="15"/>
       <c r="B194" s="15"/>
       <c r="C194" s="16"/>
       <c r="D194" s="16"/>
       <c r="E194" s="15"/>
-      <c r="F194" s="14"/>
-    </row>
-    <row r="195" ht="16" customHeight="1">
+      <c r="F194" s="15"/>
+      <c r="G194" s="14"/>
+    </row>
+    <row r="195" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="15"/>
       <c r="B195" s="15"/>
       <c r="C195" s="16"/>
       <c r="D195" s="16"/>
       <c r="E195" s="15"/>
-      <c r="F195" s="14"/>
-    </row>
-    <row r="196" ht="16" customHeight="1">
+      <c r="F195" s="15"/>
+      <c r="G195" s="14"/>
+    </row>
+    <row r="196" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
       <c r="C196" s="16"/>
       <c r="D196" s="16"/>
       <c r="E196" s="15"/>
-      <c r="F196" s="14"/>
-    </row>
-    <row r="197" ht="16" customHeight="1">
+      <c r="F196" s="15"/>
+      <c r="G196" s="14"/>
+    </row>
+    <row r="197" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="16"/>
       <c r="D197" s="16"/>
       <c r="E197" s="15"/>
-      <c r="F197" s="14"/>
-    </row>
-    <row r="198" ht="16" customHeight="1">
+      <c r="F197" s="15"/>
+      <c r="G197" s="14"/>
+    </row>
+    <row r="198" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
       <c r="C198" s="14"/>
       <c r="D198" s="14"/>
       <c r="E198" s="15"/>
-      <c r="F198" s="12"/>
-    </row>
-    <row r="199" ht="16" customHeight="1">
+      <c r="F198" s="15"/>
+      <c r="G198" s="12"/>
+    </row>
+    <row r="199" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="14"/>
       <c r="D199" s="14"/>
       <c r="E199" s="15"/>
-      <c r="F199" s="12"/>
-    </row>
-    <row r="200" ht="16" customHeight="1">
+      <c r="F199" s="15"/>
+      <c r="G199" s="12"/>
+    </row>
+    <row r="200" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="14"/>
       <c r="D200" s="14"/>
       <c r="E200" s="15"/>
-      <c r="F200" s="12"/>
-    </row>
-    <row r="201" ht="16" customHeight="1">
+      <c r="F200" s="15"/>
+      <c r="G200" s="12"/>
+    </row>
+    <row r="201" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
       <c r="C201" s="16"/>
       <c r="D201" s="16"/>
       <c r="E201" s="15"/>
-      <c r="F201" s="14"/>
-    </row>
-    <row r="202" ht="16" customHeight="1">
+      <c r="F201" s="15"/>
+      <c r="G201" s="14"/>
+    </row>
+    <row r="202" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="15"/>
       <c r="B202" s="15"/>
       <c r="C202" s="16"/>
       <c r="D202" s="16"/>
       <c r="E202" s="15"/>
-      <c r="F202" s="14"/>
-    </row>
-    <row r="203" ht="16" customHeight="1">
+      <c r="F202" s="15"/>
+      <c r="G202" s="14"/>
+    </row>
+    <row r="203" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="15"/>
       <c r="B203" s="15"/>
       <c r="C203" s="14"/>
       <c r="D203" s="14"/>
       <c r="E203" s="15"/>
-      <c r="F203" s="12"/>
-    </row>
-    <row r="204" ht="16" customHeight="1">
+      <c r="F203" s="15"/>
+      <c r="G203" s="12"/>
+    </row>
+    <row r="204" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="15"/>
       <c r="B204" s="15"/>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
       <c r="E204" s="15"/>
-      <c r="F204" s="12"/>
-    </row>
-    <row r="205" ht="16" customHeight="1">
+      <c r="F204" s="15"/>
+      <c r="G204" s="12"/>
+    </row>
+    <row r="205" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="15"/>
       <c r="B205" s="15"/>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
       <c r="E205" s="15"/>
-      <c r="F205" s="14"/>
-    </row>
-    <row r="206" ht="16" customHeight="1">
+      <c r="F205" s="15"/>
+      <c r="G205" s="14"/>
+    </row>
+    <row r="206" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="15"/>
       <c r="B206" s="15"/>
       <c r="C206" s="14"/>
       <c r="D206" s="14"/>
       <c r="E206" s="15"/>
-      <c r="F206" s="14"/>
-    </row>
-    <row r="207" ht="16" customHeight="1">
+      <c r="F206" s="15"/>
+      <c r="G206" s="14"/>
+    </row>
+    <row r="207" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="15"/>
       <c r="B207" s="15"/>
       <c r="C207" s="14"/>
       <c r="D207" s="14"/>
       <c r="E207" s="15"/>
-      <c r="F207" s="12"/>
-    </row>
-    <row r="208" ht="16" customHeight="1">
+      <c r="F207" s="15"/>
+      <c r="G207" s="12"/>
+    </row>
+    <row r="208" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="15"/>
       <c r="B208" s="15"/>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
       <c r="E208" s="15"/>
-      <c r="F208" s="12"/>
-    </row>
-    <row r="209" ht="16" customHeight="1">
+      <c r="F208" s="15"/>
+      <c r="G208" s="12"/>
+    </row>
+    <row r="209" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="15"/>
       <c r="B209" s="15"/>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
       <c r="E209" s="15"/>
-      <c r="F209" s="12"/>
-    </row>
-    <row r="210" ht="16" customHeight="1">
+      <c r="F209" s="15"/>
+      <c r="G209" s="12"/>
+    </row>
+    <row r="210" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="15"/>
       <c r="B210" s="15"/>
       <c r="C210" s="14"/>
       <c r="D210" s="14"/>
       <c r="E210" s="15"/>
-      <c r="F210" s="12"/>
-    </row>
-    <row r="211" ht="16" customHeight="1">
+      <c r="F210" s="15"/>
+      <c r="G210" s="12"/>
+    </row>
+    <row r="211" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="15"/>
       <c r="B211" s="15"/>
       <c r="C211" s="14"/>
       <c r="D211" s="14"/>
       <c r="E211" s="15"/>
-      <c r="F211" s="12"/>
-    </row>
-    <row r="212" ht="16" customHeight="1">
+      <c r="F211" s="15"/>
+      <c r="G211" s="12"/>
+    </row>
+    <row r="212" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="15"/>
       <c r="B212" s="15"/>
       <c r="C212" s="16"/>
       <c r="D212" s="16"/>
       <c r="E212" s="15"/>
-      <c r="F212" s="14"/>
-    </row>
-    <row r="213" ht="16" customHeight="1">
+      <c r="F212" s="15"/>
+      <c r="G212" s="14"/>
+    </row>
+    <row r="213" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="15"/>
       <c r="B213" s="15"/>
       <c r="C213" s="16"/>
       <c r="D213" s="16"/>
       <c r="E213" s="15"/>
-      <c r="F213" s="14"/>
-    </row>
-    <row r="214" ht="16" customHeight="1">
+      <c r="F213" s="15"/>
+      <c r="G213" s="14"/>
+    </row>
+    <row r="214" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="15"/>
       <c r="B214" s="15"/>
       <c r="C214" s="14"/>
       <c r="D214" s="14"/>
       <c r="E214" s="15"/>
-      <c r="F214" s="12"/>
-    </row>
-    <row r="215" ht="16" customHeight="1">
+      <c r="F214" s="15"/>
+      <c r="G214" s="12"/>
+    </row>
+    <row r="215" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="15"/>
       <c r="B215" s="15"/>
       <c r="C215" s="14"/>
       <c r="D215" s="14"/>
       <c r="E215" s="15"/>
-      <c r="F215" s="12"/>
-    </row>
-    <row r="216" ht="16" customHeight="1">
+      <c r="F215" s="15"/>
+      <c r="G215" s="12"/>
+    </row>
+    <row r="216" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="15"/>
       <c r="B216" s="15"/>
       <c r="C216" s="16"/>
       <c r="D216" s="16"/>
       <c r="E216" s="15"/>
-      <c r="F216" s="14"/>
-    </row>
-    <row r="217" ht="16" customHeight="1">
+      <c r="F216" s="15"/>
+      <c r="G216" s="14"/>
+    </row>
+    <row r="217" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="15"/>
       <c r="B217" s="15"/>
       <c r="C217" s="16"/>
       <c r="D217" s="16"/>
       <c r="E217" s="15"/>
-      <c r="F217" s="14"/>
-    </row>
-    <row r="218" ht="16" customHeight="1">
+      <c r="F217" s="15"/>
+      <c r="G217" s="14"/>
+    </row>
+    <row r="218" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="15"/>
       <c r="B218" s="15"/>
       <c r="C218" s="16"/>
       <c r="D218" s="16"/>
       <c r="E218" s="15"/>
-      <c r="F218" s="14"/>
-    </row>
-    <row r="219" ht="16" customHeight="1">
+      <c r="F218" s="15"/>
+      <c r="G218" s="14"/>
+    </row>
+    <row r="219" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="15"/>
       <c r="B219" s="15"/>
       <c r="C219" s="16"/>
       <c r="D219" s="16"/>
       <c r="E219" s="15"/>
-      <c r="F219" s="14"/>
-    </row>
-    <row r="220" ht="16" customHeight="1">
+      <c r="F219" s="15"/>
+      <c r="G219" s="14"/>
+    </row>
+    <row r="220" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="15"/>
       <c r="B220" s="15"/>
       <c r="C220" s="14"/>
       <c r="D220" s="14"/>
       <c r="E220" s="15"/>
-      <c r="F220" s="12"/>
-    </row>
-    <row r="221" ht="16" customHeight="1">
+      <c r="F220" s="15"/>
+      <c r="G220" s="12"/>
+    </row>
+    <row r="221" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="15"/>
       <c r="B221" s="15"/>
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
       <c r="E221" s="15"/>
-      <c r="F221" s="14"/>
-    </row>
-    <row r="222" ht="16" customHeight="1">
+      <c r="F221" s="15"/>
+      <c r="G221" s="14"/>
+    </row>
+    <row r="222" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="15"/>
       <c r="B222" s="15"/>
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
       <c r="E222" s="15"/>
-      <c r="F222" s="14"/>
-    </row>
-    <row r="223" ht="16" customHeight="1">
+      <c r="F222" s="15"/>
+      <c r="G222" s="14"/>
+    </row>
+    <row r="223" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="15"/>
       <c r="B223" s="15"/>
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
       <c r="E223" s="15"/>
-      <c r="F223" s="14"/>
-    </row>
-    <row r="224" ht="16" customHeight="1">
+      <c r="F223" s="15"/>
+      <c r="G223" s="14"/>
+    </row>
+    <row r="224" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
       <c r="E224" s="15"/>
-      <c r="F224" s="12"/>
-    </row>
-    <row r="225" ht="16" customHeight="1">
+      <c r="F224" s="15"/>
+      <c r="G224" s="12"/>
+    </row>
+    <row r="225" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="15"/>
       <c r="B225" s="15"/>
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
       <c r="E225" s="15"/>
-      <c r="F225" s="14"/>
-    </row>
-    <row r="226" ht="16" customHeight="1">
+      <c r="F225" s="15"/>
+      <c r="G225" s="14"/>
+    </row>
+    <row r="226" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="15"/>
       <c r="B226" s="15"/>
       <c r="C226" s="16"/>
       <c r="D226" s="16"/>
       <c r="E226" s="15"/>
-      <c r="F226" s="14"/>
-    </row>
-    <row r="227" ht="16" customHeight="1">
+      <c r="F226" s="15"/>
+      <c r="G226" s="14"/>
+    </row>
+    <row r="227" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="15"/>
       <c r="B227" s="15"/>
       <c r="C227" s="16"/>
       <c r="D227" s="16"/>
       <c r="E227" s="15"/>
-      <c r="F227" s="14"/>
-    </row>
-    <row r="228" ht="16" customHeight="1">
+      <c r="F227" s="15"/>
+      <c r="G227" s="14"/>
+    </row>
+    <row r="228" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="15"/>
       <c r="B228" s="15"/>
       <c r="C228" s="16"/>
       <c r="D228" s="16"/>
       <c r="E228" s="15"/>
-      <c r="F228" s="14"/>
-    </row>
-    <row r="229" ht="16" customHeight="1">
+      <c r="F228" s="15"/>
+      <c r="G228" s="14"/>
+    </row>
+    <row r="229" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="15"/>
       <c r="B229" s="15"/>
       <c r="C229" s="16"/>
       <c r="D229" s="16"/>
       <c r="E229" s="15"/>
-      <c r="F229" s="14"/>
-    </row>
-    <row r="230" ht="16" customHeight="1">
+      <c r="F229" s="15"/>
+      <c r="G229" s="14"/>
+    </row>
+    <row r="230" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="15"/>
       <c r="B230" s="15"/>
       <c r="C230" s="16"/>
       <c r="D230" s="16"/>
       <c r="E230" s="15"/>
-      <c r="F230" s="14"/>
-    </row>
-    <row r="231" ht="16" customHeight="1">
+      <c r="F230" s="15"/>
+      <c r="G230" s="14"/>
+    </row>
+    <row r="231" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="15"/>
       <c r="B231" s="15"/>
       <c r="C231" s="16"/>
       <c r="D231" s="16"/>
       <c r="E231" s="15"/>
-      <c r="F231" s="14"/>
-    </row>
-    <row r="232" ht="16" customHeight="1">
+      <c r="F231" s="15"/>
+      <c r="G231" s="14"/>
+    </row>
+    <row r="232" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="15"/>
       <c r="B232" s="15"/>
       <c r="C232" s="14"/>
       <c r="D232" s="14"/>
       <c r="E232" s="15"/>
-      <c r="F232" s="12"/>
-    </row>
-    <row r="233" ht="16" customHeight="1">
+      <c r="F232" s="15"/>
+      <c r="G232" s="12"/>
+    </row>
+    <row r="233" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="15"/>
       <c r="B233" s="15"/>
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
       <c r="E233" s="15"/>
-      <c r="F233" s="12"/>
-    </row>
-    <row r="234" ht="16" customHeight="1">
+      <c r="F233" s="15"/>
+      <c r="G233" s="12"/>
+    </row>
+    <row r="234" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="15"/>
       <c r="B234" s="15"/>
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
       <c r="E234" s="15"/>
-      <c r="F234" s="14"/>
-    </row>
-    <row r="235" ht="16" customHeight="1">
+      <c r="F234" s="15"/>
+      <c r="G234" s="14"/>
+    </row>
+    <row r="235" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="15"/>
       <c r="B235" s="15"/>
       <c r="C235" s="14"/>
       <c r="D235" s="14"/>
       <c r="E235" s="15"/>
-      <c r="F235" s="12"/>
-    </row>
-    <row r="236" ht="16" customHeight="1">
+      <c r="F235" s="15"/>
+      <c r="G235" s="12"/>
+    </row>
+    <row r="236" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="15"/>
       <c r="B236" s="15"/>
       <c r="C236" s="16"/>
       <c r="D236" s="16"/>
       <c r="E236" s="15"/>
-      <c r="F236" s="14"/>
-    </row>
-    <row r="237" ht="16" customHeight="1">
+      <c r="F236" s="15"/>
+      <c r="G236" s="14"/>
+    </row>
+    <row r="237" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="15"/>
       <c r="B237" s="15"/>
       <c r="C237" s="14"/>
       <c r="D237" s="14"/>
       <c r="E237" s="15"/>
-      <c r="F237" s="12"/>
-    </row>
-    <row r="238" ht="16" customHeight="1">
+      <c r="F237" s="15"/>
+      <c r="G237" s="12"/>
+    </row>
+    <row r="238" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="15"/>
       <c r="B238" s="15"/>
       <c r="C238" s="14"/>
       <c r="D238" s="14"/>
       <c r="E238" s="15"/>
-      <c r="F238" s="12"/>
-    </row>
-    <row r="239" ht="16" customHeight="1">
+      <c r="F238" s="15"/>
+      <c r="G238" s="12"/>
+    </row>
+    <row r="239" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="15"/>
       <c r="B239" s="15"/>
       <c r="C239" s="14"/>
       <c r="D239" s="14"/>
       <c r="E239" s="15"/>
-      <c r="F239" s="12"/>
-    </row>
-    <row r="240" ht="16" customHeight="1">
+      <c r="F239" s="15"/>
+      <c r="G239" s="12"/>
+    </row>
+    <row r="240" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="15"/>
       <c r="B240" s="15"/>
       <c r="C240" s="14"/>
       <c r="D240" s="14"/>
       <c r="E240" s="15"/>
-      <c r="F240" s="12"/>
-    </row>
-    <row r="241" ht="16" customHeight="1">
+      <c r="F240" s="15"/>
+      <c r="G240" s="12"/>
+    </row>
+    <row r="241" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="15"/>
       <c r="B241" s="15"/>
       <c r="C241" s="14"/>
       <c r="D241" s="14"/>
       <c r="E241" s="15"/>
-      <c r="F241" s="12"/>
-    </row>
-    <row r="242" ht="16" customHeight="1">
+      <c r="F241" s="15"/>
+      <c r="G241" s="12"/>
+    </row>
+    <row r="242" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="15"/>
       <c r="B242" s="15"/>
       <c r="C242" s="14"/>
       <c r="D242" s="14"/>
       <c r="E242" s="15"/>
-      <c r="F242" s="12"/>
-    </row>
-    <row r="243" ht="16" customHeight="1">
+      <c r="F242" s="15"/>
+      <c r="G242" s="12"/>
+    </row>
+    <row r="243" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="15"/>
       <c r="B243" s="15"/>
       <c r="C243" s="14"/>
       <c r="D243" s="14"/>
       <c r="E243" s="15"/>
-      <c r="F243" s="12"/>
-    </row>
-    <row r="244" ht="16" customHeight="1">
+      <c r="F243" s="15"/>
+      <c r="G243" s="12"/>
+    </row>
+    <row r="244" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="15"/>
       <c r="B244" s="15"/>
       <c r="C244" s="14"/>
       <c r="D244" s="14"/>
       <c r="E244" s="15"/>
-      <c r="F244" s="12"/>
-    </row>
-    <row r="245" ht="16" customHeight="1">
+      <c r="F244" s="15"/>
+      <c r="G244" s="12"/>
+    </row>
+    <row r="245" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="15"/>
       <c r="B245" s="15"/>
       <c r="C245" s="14"/>
       <c r="D245" s="14"/>
       <c r="E245" s="15"/>
-      <c r="F245" s="12"/>
-    </row>
-    <row r="246" ht="16" customHeight="1">
+      <c r="F245" s="15"/>
+      <c r="G245" s="12"/>
+    </row>
+    <row r="246" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="15"/>
       <c r="B246" s="15"/>
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
       <c r="E246" s="15"/>
-      <c r="F246" s="12"/>
-    </row>
-    <row r="247" ht="16" customHeight="1">
+      <c r="F246" s="15"/>
+      <c r="G246" s="12"/>
+    </row>
+    <row r="247" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="15"/>
       <c r="B247" s="15"/>
       <c r="C247" s="14"/>
       <c r="D247" s="14"/>
       <c r="E247" s="15"/>
-      <c r="F247" s="12"/>
-    </row>
-    <row r="248" ht="16" customHeight="1">
+      <c r="F247" s="15"/>
+      <c r="G247" s="12"/>
+    </row>
+    <row r="248" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="15"/>
       <c r="B248" s="15"/>
       <c r="C248" s="14"/>
       <c r="D248" s="14"/>
       <c r="E248" s="15"/>
-      <c r="F248" s="12"/>
-    </row>
-    <row r="249" ht="16" customHeight="1">
+      <c r="F248" s="15"/>
+      <c r="G248" s="12"/>
+    </row>
+    <row r="249" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="15"/>
       <c r="B249" s="15"/>
       <c r="C249" s="14"/>
       <c r="D249" s="14"/>
       <c r="E249" s="15"/>
-      <c r="F249" s="12"/>
-    </row>
-    <row r="250" ht="16" customHeight="1">
+      <c r="F249" s="15"/>
+      <c r="G249" s="12"/>
+    </row>
+    <row r="250" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="15"/>
       <c r="B250" s="15"/>
       <c r="C250" s="14"/>
       <c r="D250" s="14"/>
       <c r="E250" s="15"/>
-      <c r="F250" s="12"/>
-    </row>
-    <row r="251" ht="16" customHeight="1">
+      <c r="F250" s="15"/>
+      <c r="G250" s="12"/>
+    </row>
+    <row r="251" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="15"/>
       <c r="B251" s="15"/>
       <c r="C251" s="14"/>
       <c r="D251" s="14"/>
       <c r="E251" s="15"/>
-      <c r="F251" s="12"/>
-    </row>
-    <row r="252" ht="16" customHeight="1">
+      <c r="F251" s="15"/>
+      <c r="G251" s="12"/>
+    </row>
+    <row r="252" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="15"/>
       <c r="B252" s="15"/>
       <c r="C252" s="14"/>
       <c r="D252" s="14"/>
       <c r="E252" s="15"/>
-      <c r="F252" s="12"/>
-    </row>
-    <row r="253" ht="16" customHeight="1">
+      <c r="F252" s="15"/>
+      <c r="G252" s="12"/>
+    </row>
+    <row r="253" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="15"/>
       <c r="B253" s="15"/>
       <c r="C253" s="14"/>
       <c r="D253" s="14"/>
       <c r="E253" s="15"/>
-      <c r="F253" s="12"/>
-    </row>
-    <row r="254" ht="16" customHeight="1">
+      <c r="F253" s="15"/>
+      <c r="G253" s="12"/>
+    </row>
+    <row r="254" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="15"/>
       <c r="B254" s="15"/>
       <c r="C254" s="14"/>
       <c r="D254" s="14"/>
       <c r="E254" s="15"/>
-      <c r="F254" s="12"/>
-    </row>
-    <row r="255" ht="16" customHeight="1">
+      <c r="F254" s="15"/>
+      <c r="G254" s="12"/>
+    </row>
+    <row r="255" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="15"/>
       <c r="B255" s="15"/>
       <c r="C255" s="14"/>
       <c r="D255" s="14"/>
       <c r="E255" s="15"/>
-      <c r="F255" s="12"/>
-    </row>
-    <row r="256" ht="16" customHeight="1">
+      <c r="F255" s="15"/>
+      <c r="G255" s="12"/>
+    </row>
+    <row r="256" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="15"/>
       <c r="B256" s="15"/>
       <c r="C256" s="14"/>
       <c r="D256" s="14"/>
       <c r="E256" s="15"/>
-      <c r="F256" s="12"/>
-    </row>
-    <row r="257" ht="16" customHeight="1">
+      <c r="F256" s="15"/>
+      <c r="G256" s="12"/>
+    </row>
+    <row r="257" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="15"/>
       <c r="B257" s="15"/>
       <c r="C257" s="14"/>
       <c r="D257" s="14"/>
       <c r="E257" s="15"/>
-      <c r="F257" s="12"/>
-    </row>
-    <row r="258" ht="16" customHeight="1">
+      <c r="F257" s="15"/>
+      <c r="G257" s="12"/>
+    </row>
+    <row r="258" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="15"/>
       <c r="B258" s="15"/>
       <c r="C258" s="14"/>
       <c r="D258" s="14"/>
       <c r="E258" s="15"/>
-      <c r="F258" s="12"/>
-    </row>
-    <row r="259" ht="16" customHeight="1">
+      <c r="F258" s="15"/>
+      <c r="G258" s="12"/>
+    </row>
+    <row r="259" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="15"/>
       <c r="B259" s="15"/>
       <c r="C259" s="14"/>
       <c r="D259" s="14"/>
       <c r="E259" s="15"/>
-      <c r="F259" s="12"/>
-    </row>
-    <row r="260" ht="16" customHeight="1">
+      <c r="F259" s="15"/>
+      <c r="G259" s="12"/>
+    </row>
+    <row r="260" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="15"/>
       <c r="B260" s="15"/>
       <c r="C260" s="14"/>
       <c r="D260" s="14"/>
       <c r="E260" s="15"/>
-      <c r="F260" s="12"/>
-    </row>
-    <row r="261" ht="16" customHeight="1">
+      <c r="F260" s="15"/>
+      <c r="G260" s="12"/>
+    </row>
+    <row r="261" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="15"/>
       <c r="B261" s="15"/>
       <c r="C261" s="14"/>
       <c r="D261" s="14"/>
       <c r="E261" s="15"/>
-      <c r="F261" s="12"/>
-    </row>
-    <row r="262" ht="16" customHeight="1">
+      <c r="F261" s="15"/>
+      <c r="G261" s="12"/>
+    </row>
+    <row r="262" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="15"/>
       <c r="B262" s="15"/>
       <c r="C262" s="14"/>
       <c r="D262" s="14"/>
       <c r="E262" s="15"/>
-      <c r="F262" s="12"/>
-    </row>
-    <row r="263" ht="16" customHeight="1">
+      <c r="F262" s="15"/>
+      <c r="G262" s="12"/>
+    </row>
+    <row r="263" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="15"/>
       <c r="B263" s="15"/>
       <c r="C263" s="14"/>
       <c r="D263" s="14"/>
       <c r="E263" s="15"/>
-      <c r="F263" s="12"/>
-    </row>
-    <row r="264" ht="16" customHeight="1">
+      <c r="F263" s="15"/>
+      <c r="G263" s="12"/>
+    </row>
+    <row r="264" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="15"/>
       <c r="B264" s="15"/>
       <c r="C264" s="14"/>
       <c r="D264" s="14"/>
       <c r="E264" s="15"/>
-      <c r="F264" s="12"/>
-    </row>
-    <row r="265" ht="16" customHeight="1">
+      <c r="F264" s="15"/>
+      <c r="G264" s="12"/>
+    </row>
+    <row r="265" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="15"/>
       <c r="B265" s="15"/>
       <c r="C265" s="14"/>
       <c r="D265" s="14"/>
       <c r="E265" s="15"/>
-      <c r="F265" s="12"/>
-    </row>
-    <row r="266" ht="16" customHeight="1">
+      <c r="F265" s="15"/>
+      <c r="G265" s="12"/>
+    </row>
+    <row r="266" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="15"/>
       <c r="B266" s="15"/>
       <c r="C266" s="14"/>
       <c r="D266" s="14"/>
       <c r="E266" s="15"/>
-      <c r="F266" s="12"/>
-    </row>
-    <row r="267" ht="16" customHeight="1">
+      <c r="F266" s="15"/>
+      <c r="G266" s="12"/>
+    </row>
+    <row r="267" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="15"/>
       <c r="B267" s="15"/>
       <c r="C267" s="14"/>
       <c r="D267" s="14"/>
       <c r="E267" s="15"/>
-      <c r="F267" s="12"/>
-    </row>
-    <row r="268" ht="16" customHeight="1">
+      <c r="F267" s="15"/>
+      <c r="G267" s="12"/>
+    </row>
+    <row r="268" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="15"/>
       <c r="B268" s="15"/>
       <c r="C268" s="14"/>
       <c r="D268" s="14"/>
       <c r="E268" s="15"/>
-      <c r="F268" s="12"/>
-    </row>
-    <row r="269" ht="16" customHeight="1">
+      <c r="F268" s="15"/>
+      <c r="G268" s="12"/>
+    </row>
+    <row r="269" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="15"/>
       <c r="B269" s="15"/>
       <c r="C269" s="14"/>
       <c r="D269" s="14"/>
       <c r="E269" s="15"/>
-      <c r="F269" s="12"/>
-    </row>
-    <row r="270" ht="16" customHeight="1">
+      <c r="F269" s="15"/>
+      <c r="G269" s="12"/>
+    </row>
+    <row r="270" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="15"/>
       <c r="B270" s="15"/>
       <c r="C270" s="14"/>
       <c r="D270" s="14"/>
       <c r="E270" s="15"/>
-      <c r="F270" s="12"/>
-    </row>
-    <row r="271" ht="16" customHeight="1">
+      <c r="F270" s="15"/>
+      <c r="G270" s="12"/>
+    </row>
+    <row r="271" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="15"/>
       <c r="B271" s="15"/>
       <c r="C271" s="14"/>
       <c r="D271" s="14"/>
       <c r="E271" s="15"/>
-      <c r="F271" s="12"/>
-    </row>
-    <row r="272" ht="16" customHeight="1">
+      <c r="F271" s="15"/>
+      <c r="G271" s="12"/>
+    </row>
+    <row r="272" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="15"/>
       <c r="B272" s="15"/>
       <c r="C272" s="14"/>
       <c r="D272" s="14"/>
       <c r="E272" s="15"/>
-      <c r="F272" s="12"/>
-    </row>
-    <row r="273" ht="16" customHeight="1">
+      <c r="F272" s="15"/>
+      <c r="G272" s="12"/>
+    </row>
+    <row r="273" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="15"/>
       <c r="B273" s="15"/>
       <c r="C273" s="14"/>
       <c r="D273" s="14"/>
       <c r="E273" s="15"/>
-      <c r="F273" s="12"/>
-    </row>
-    <row r="274" ht="16" customHeight="1">
+      <c r="F273" s="15"/>
+      <c r="G273" s="12"/>
+    </row>
+    <row r="274" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="15"/>
       <c r="B274" s="15"/>
       <c r="C274" s="14"/>
       <c r="D274" s="14"/>
       <c r="E274" s="15"/>
-      <c r="F274" s="12"/>
+      <c r="F274" s="15"/>
+      <c r="G274" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="" tooltip="" display="Result_Baseline_ArmGroup_numUnitsAnalyzed"/>
-    <hyperlink ref="F4" r:id="rId2" location="" tooltip="" display="BriefSummary"/>
-    <hyperlink ref="F12" r:id="rId3" location="" tooltip="" display="crossref"/>
-    <hyperlink ref="F13" r:id="rId4" location="" tooltip="" display="ArmsGroupsInterventionsLabel"/>
-    <hyperlink ref="F14" r:id="rId5" location="" tooltip="" display="OutcomesBody"/>
-    <hyperlink ref="F15" r:id="rId6" location="" tooltip="" display="StudyDesignLabel"/>
-    <hyperlink ref="F16" r:id="rId7" location="" tooltip="" display="DetailedDescription"/>
-    <hyperlink ref="F17" r:id="rId8" location="" tooltip="" display="DocumentUpload"/>
-    <hyperlink ref="F18" r:id="rId9" location="" tooltip="" display="NotCompleted"/>
-    <hyperlink ref="F19" r:id="rId10" location="" tooltip="" display="EligibilityLabel"/>
-    <hyperlink ref="F20" r:id="rId11" location="" tooltip="" display="Facility"/>
-    <hyperlink ref="F21" r:id="rId12" location="" tooltip="" display="FacilityContact"/>
-    <hyperlink ref="F22" r:id="rId13" location="" tooltip="" display="StudyOfficials"/>
-    <hyperlink ref="F23" r:id="rId14" location="" tooltip="" display="SecondaryIds"/>
-    <hyperlink ref="F24" r:id="rId15" location="" tooltip="" display="InterventionOtherName"/>
-    <hyperlink ref="F25" r:id="rId16" location="" tooltip="" display="IntDesign"/>
-    <hyperlink ref="F26" r:id="rId17" location="" tooltip="" display="Keywords"/>
-    <hyperlink ref="F27" r:id="rId18" location="" tooltip="" display="Links"/>
-    <hyperlink ref="F28" r:id="rId19" location="" tooltip="" display="MilestoneName"/>
-    <hyperlink ref="F29" r:id="rId20" location="" tooltip="" display="Result_Outcome_Analysis"/>
-    <hyperlink ref="F30" r:id="rId21" location="" tooltip="" display="GroupSelection"/>
-    <hyperlink ref="F31" r:id="rId22" location="" tooltip="" display="OutcomeData"/>
-    <hyperlink ref="F32" r:id="rId23" location="" tooltip="" display="Result_Outcome_MeasureLabel"/>
-    <hyperlink ref="F33" r:id="rId24" location="" tooltip="" display="Result_Outcome_MeasureImg"/>
-    <hyperlink ref="F34" r:id="rId25" location="" tooltip="" display="StudyOfficials"/>
-    <hyperlink ref="F35" r:id="rId26" location="" tooltip="" display="Result_ParticipantFlowLabel"/>
-    <hyperlink ref="F37" r:id="rId27" location="" tooltip="" display="Documents"/>
-    <hyperlink ref="F38" r:id="rId28" location="" tooltip="" display="Result_AdverseEventsLabel"/>
-    <hyperlink ref="F39" r:id="rId29" location="" tooltip="" display="RespParty"/>
-    <hyperlink ref="F40" r:id="rId30" location="" tooltip="" display="Result_CertainAgreementLabel"/>
-    <hyperlink ref="F41" r:id="rId31" location="" tooltip="" display="Result_PointOfContactLabel"/>
-    <hyperlink ref="F42" r:id="rId32" location="" tooltip="" display="PopFlowArmGroup"/>
-    <hyperlink ref="F43" r:id="rId33" location="" tooltip="" display="https://prsinfo.clinicaltrials.gov/definitions.html - LeadSponsor"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G12" r:id="rId3"/>
+    <hyperlink ref="G13" r:id="rId4"/>
+    <hyperlink ref="G14" r:id="rId5"/>
+    <hyperlink ref="G15" r:id="rId6"/>
+    <hyperlink ref="G16" r:id="rId7"/>
+    <hyperlink ref="G17" r:id="rId8"/>
+    <hyperlink ref="G18" r:id="rId9"/>
+    <hyperlink ref="G19" r:id="rId10"/>
+    <hyperlink ref="G20" r:id="rId11"/>
+    <hyperlink ref="G21" r:id="rId12"/>
+    <hyperlink ref="G22" r:id="rId13"/>
+    <hyperlink ref="G23" r:id="rId14"/>
+    <hyperlink ref="G24" r:id="rId15"/>
+    <hyperlink ref="G25" r:id="rId16"/>
+    <hyperlink ref="G26" r:id="rId17"/>
+    <hyperlink ref="G27" r:id="rId18"/>
+    <hyperlink ref="G28" r:id="rId19"/>
+    <hyperlink ref="G29" r:id="rId20"/>
+    <hyperlink ref="G30" r:id="rId21"/>
+    <hyperlink ref="G31" r:id="rId22"/>
+    <hyperlink ref="G32" r:id="rId23"/>
+    <hyperlink ref="G33" r:id="rId24"/>
+    <hyperlink ref="G34" r:id="rId25"/>
+    <hyperlink ref="G35" r:id="rId26"/>
+    <hyperlink ref="G37" r:id="rId27"/>
+    <hyperlink ref="G38" r:id="rId28"/>
+    <hyperlink ref="G39" r:id="rId29"/>
+    <hyperlink ref="G40" r:id="rId30"/>
+    <hyperlink ref="G41" r:id="rId31"/>
+    <hyperlink ref="G42" r:id="rId32"/>
+    <hyperlink ref="G43" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/references/aact_tables.xlsx
+++ b/references/aact_tables.xlsx
@@ -13,13 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="AACT Tables and Columns" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AACT Tables and Columns'!$A$1:$G$54</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="170">
   <si>
     <t>db schema</t>
   </si>
@@ -47,6 +51,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>b</t>
     </r>
@@ -55,6 +60,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>aseline_</t>
     </r>
@@ -63,6 +69,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>c</t>
     </r>
@@ -71,6 +78,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ounts</t>
     </r>
@@ -91,6 +99,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Result_Baseline_ArmGroup_numUnitsAnalyzed</t>
     </r>
@@ -101,6 +110,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>b</t>
     </r>
@@ -109,6 +119,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>aseline_</t>
     </r>
@@ -117,6 +128,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>m</t>
     </r>
@@ -125,6 +137,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>easurements</t>
     </r>
@@ -154,6 +167,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BriefSummary</t>
     </r>
@@ -219,6 +233,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>crossref</t>
     </r>
@@ -236,6 +251,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ArmsGroupsInterventionsLabel</t>
     </r>
@@ -253,6 +269,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OutcomesBody</t>
     </r>
@@ -270,6 +287,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>StudyDesignLabel</t>
     </r>
@@ -287,6 +305,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DetailedDescription</t>
     </r>
@@ -297,6 +316,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>d</t>
     </r>
@@ -305,6 +325,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ocuments</t>
     </r>
@@ -319,6 +340,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DocumentUpload</t>
     </r>
@@ -329,6 +351,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>d</t>
     </r>
@@ -337,6 +360,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>rop_</t>
     </r>
@@ -345,6 +369,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>w</t>
     </r>
@@ -353,6 +378,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ithdrawals</t>
     </r>
@@ -367,6 +393,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>NotCompleted</t>
     </r>
@@ -384,6 +411,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>EligibilityLabel</t>
     </r>
@@ -401,6 +429,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Facility</t>
     </r>
@@ -418,6 +447,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>FacilityContact</t>
     </r>
@@ -435,6 +465,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>StudyOfficials</t>
     </r>
@@ -452,6 +483,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SecondaryIds</t>
     </r>
@@ -469,6 +501,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>InterventionOtherName</t>
     </r>
@@ -486,6 +519,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>IntDesign</t>
     </r>
@@ -503,6 +537,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Keywords</t>
     </r>
@@ -520,6 +555,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Links</t>
     </r>
@@ -530,6 +566,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>m</t>
     </r>
@@ -538,6 +575,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ilestones</t>
     </r>
@@ -552,6 +590,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MilestoneName</t>
     </r>
@@ -562,6 +601,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>o</t>
     </r>
@@ -570,6 +610,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>utcome_</t>
     </r>
@@ -578,6 +619,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
@@ -586,6 +628,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>nalyses</t>
     </r>
@@ -600,6 +643,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Result_Outcome_Analysis</t>
     </r>
@@ -610,6 +654,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>o</t>
     </r>
@@ -618,6 +663,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>utcome_</t>
     </r>
@@ -626,6 +672,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
@@ -634,6 +681,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>nalysis_</t>
     </r>
@@ -642,6 +690,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>g</t>
     </r>
@@ -650,6 +699,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>roups</t>
     </r>
@@ -664,6 +714,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GroupSelection</t>
     </r>
@@ -674,6 +725,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>o</t>
     </r>
@@ -682,6 +734,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>utcome_</t>
     </r>
@@ -690,6 +743,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>c</t>
     </r>
@@ -698,6 +752,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ounts</t>
     </r>
@@ -712,6 +767,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OutcomeData</t>
     </r>
@@ -722,6 +778,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>o</t>
     </r>
@@ -730,6 +787,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>utcome_</t>
     </r>
@@ -738,6 +796,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>m</t>
     </r>
@@ -746,6 +805,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>easurements</t>
     </r>
@@ -760,6 +820,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Result_Outcome_MeasureLabel</t>
     </r>
@@ -770,6 +831,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>o</t>
     </r>
@@ -778,6 +840,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>utcomes</t>
     </r>
@@ -792,6 +855,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Result_Outcome_MeasureImg</t>
     </r>
@@ -808,6 +872,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>p</t>
     </r>
@@ -816,6 +881,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>articipant_</t>
     </r>
@@ -824,6 +890,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>f</t>
     </r>
@@ -832,6 +899,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>lows</t>
     </r>
@@ -846,6 +914,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Result_ParticipantFlowLabel</t>
     </r>
@@ -856,6 +925,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>p</t>
     </r>
@@ -864,6 +934,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ending_</t>
     </r>
@@ -872,6 +943,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r</t>
     </r>
@@ -880,6 +952,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>esults</t>
     </r>
@@ -902,6 +975,7 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Documents</t>
     </r>
@@ -912,6 +986,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r</t>
     </r>
@@ -920,6 +995,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>eported_</t>
     </r>
@@ -928,6 +1004,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>e</t>
     </r>
@@ -936,6 +1013,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>vents</t>
     </r>
@@ -950,6 +1028,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Result_AdverseEventsLabel</t>
     </r>
@@ -966,6 +1045,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>RespParty</t>
     </r>
@@ -976,6 +1056,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r</t>
     </r>
@@ -984,6 +1065,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>esult_</t>
     </r>
@@ -992,6 +1074,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
@@ -1000,6 +1083,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>greements</t>
     </r>
@@ -1014,6 +1098,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Result_CertainAgreementLabel</t>
     </r>
@@ -1024,6 +1109,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r</t>
     </r>
@@ -1032,6 +1118,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>esult_</t>
     </r>
@@ -1040,6 +1127,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>c</t>
     </r>
@@ -1048,6 +1136,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ontacts</t>
     </r>
@@ -1062,6 +1151,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Result_PointOfContactLabel</t>
     </r>
@@ -1072,6 +1162,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r</t>
     </r>
@@ -1080,6 +1171,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>esult_</t>
     </r>
@@ -1088,6 +1180,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>g</t>
     </r>
@@ -1096,6 +1189,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>roups</t>
     </r>
@@ -1110,6 +1204,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PopFlowArmGroup</t>
     </r>
@@ -1127,6 +1222,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://prsinfo.clinicaltrials.gov/definitions.html - LeadSponsor</t>
     </r>
@@ -1247,6 +1343,9 @@
   </si>
   <si>
     <t>study</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -1264,44 +1363,52 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2585,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5816,4 +5923,132 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B16">
+    <sortCondition ref="B1:B16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>